--- a/List of APIs.xlsx
+++ b/List of APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me6\Documents\Work\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB00BA1-5910-4AD6-BE68-AFB49C3423DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCFD7D-A603-4F26-A341-D5512049D64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="96">
   <si>
     <t>POST</t>
   </si>
@@ -228,9 +228,6 @@
     <t>127.0.0.1:8000/auth/token/logout/</t>
   </si>
   <si>
-    <t>جهت جلوگیری از ارسال نام کاربری و رمز عبور با هر درخواست، می‌توان از احراز هویت توکن دار استفاده کرد.</t>
-  </si>
-  <si>
     <t>127.0.0.1:8000/auth/users/reset_password_confirm/</t>
   </si>
   <si>
@@ -253,13 +250,76 @@
   </si>
   <si>
     <t>اگر حساب فعال باشه ایمیل ارسال نمیشه</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/token/</t>
+  </si>
+  <si>
+    <t>دریافت access و refresh توکن</t>
+  </si>
+  <si>
+    <t>در اصل میبایست username و password باشه ولی چون ما بجای username در پروژه از email استفاده کردیم از  email - password استفاده کردیم</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/secret</t>
+  </si>
+  <si>
+    <t>Bearer Token(Token=token)</t>
+  </si>
+  <si>
+    <t>تست کردن access توکن</t>
+  </si>
+  <si>
+    <t>یک تابع در ویو برنامه مینویسیم که نیاز به احراز هویت داشته باشه و با اکسس توکنی که در مرحله قبل بدست آوردیم آن را اجرا میکنیم و بعد از گذشت ۱ دقیقه مجدد تست میکنیم تا ببینیم access توکن ما منقضی شده</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/token/refresh/</t>
+  </si>
+  <si>
+    <t>04-JWT(JSON Web Token)</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>دریافت مجددaccess token</t>
+  </si>
+  <si>
+    <t>با ارسال refresh token میتوانیم مجدد access token جدید دریافت کنیم.</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/token/blacklist/</t>
+  </si>
+  <si>
+    <t>قرار دادن refresh token در blacklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وقتی کاربر لاگ اوت میکنه یا وقتی خطرات امنیتی رخ بده میشه رفرش توکن را در لیست سیاه قرار داد تا دیگر امکان دریافت access توکن جدید نداشته باشه </t>
+  </si>
+  <si>
+    <t>جهت جلوگیری از ارسال نام کاربری و رمز عبور با هر درخواست، می‌توان از احراز هویت توکن دار استفاده کرد. شماره ۷ هم بصورت get هست و هم  post در حالت get مشخصات کاربر را برمیگرداند. اگر توکن ادمین را داده باشیم مشخصات همه کاربران را برمیگرداند.</t>
+  </si>
+  <si>
+    <t>دریافت مشخصات کامل کاربر-کاربران</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/groups/manager/users/</t>
+  </si>
+  <si>
+    <t>POST/DELETE</t>
+  </si>
+  <si>
+    <t>افزودن کاربر به گروه</t>
+  </si>
+  <si>
+    <t>با استفاده از تابعی که در ویو نوشتیم میتوانیم یک کاربر را به گروه خاصی اضافه و پاک کنیم البته گروه میبایست توسط پنل ادمین ایجاد شده باشه فرضا ما یک گروه مدیریت ایجاد کردیم</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,13 +334,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -412,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,67 +501,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,8 +658,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{705EE8E5-2336-495A-88D9-4BC9D8078A9D}" name="Table1" displayName="Table1" ref="B2:I66" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B2:I66" xr:uid="{705EE8E5-2336-495A-88D9-4BC9D8078A9D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{705EE8E5-2336-495A-88D9-4BC9D8078A9D}" name="Table1" displayName="Table1" ref="B2:I68" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B2:I68" xr:uid="{705EE8E5-2336-495A-88D9-4BC9D8078A9D}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{684CF4FF-3A3B-4A07-9891-A5B3C410BDCF}" name="No" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{7269EC06-62B6-4B22-8F66-135B83A28559}" name="Folder" dataDxfId="6"/>
@@ -814,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J66"/>
+  <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,27 +949,27 @@
     <col min="2" max="2" width="5.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="75.7265625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -877,593 +1000,710 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4">
+    <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="10">
+    <row r="4" spans="2:10" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="2:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="14">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="6" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="8">
+      <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="2:10" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="27">
+        <v>6</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22">
+        <v>7.2</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="22">
+        <v>8</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="22">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="22">
+        <v>11</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="22">
+        <v>12</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="12">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="22">
+        <v>14</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="22">
+        <v>16</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="22">
+        <v>17</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="F20" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="E21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="12">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="27">
+        <v>21</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="2:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="10">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="H24" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="27">
+        <v>22</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="27">
+        <v>23</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
-        <v>11</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8">
-        <v>12</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="2:10" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="10">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="2:10" ht="134" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="8">
-        <v>14</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="G26" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="36">
+        <v>24</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <v>16</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="8">
-        <v>17</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="2:10" ht="119" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="4">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="10">
-        <v>19</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="22">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="22">
-        <v>21</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="22">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="22">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="22">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="22">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="22"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="G28" s="2"/>
@@ -1697,14 +1937,26 @@
       <c r="G66" s="2"/>
       <c r="I66" s="2"/>
     </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/List of APIs.xlsx
+++ b/List of APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me6\Documents\Work\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCFD7D-A603-4F26-A341-D5512049D64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B84175-9C7B-4C09-87B5-0E09D8D9EF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
   <si>
     <t>POST</t>
   </si>
@@ -313,6 +313,27 @@
   </si>
   <si>
     <t>با استفاده از تابعی که در ویو نوشتیم میتوانیم یک کاربر را به گروه خاصی اضافه و پاک کنیم البته گروه میبایست توسط پنل ادمین ایجاد شده باشه فرضا ما یک گروه مدیریت ایجاد کردیم</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/</t>
+  </si>
+  <si>
+    <t>دریافت تمام محصولات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">این یک api ساده بدون استفاده از DRF در جنگو است </t>
+  </si>
+  <si>
+    <t>02-Shop API</t>
+  </si>
+  <si>
+    <t>01-Simple API</t>
+  </si>
+  <si>
+    <t>02-Simple DRF</t>
+  </si>
+  <si>
+    <t>یک DRF API ساده</t>
   </si>
 </sst>
 </file>
@@ -341,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,112 +528,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,6 +670,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -939,15 +968,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" style="1" customWidth="1"/>
@@ -959,17 +988,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -1001,84 +1030,84 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="2:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1086,331 +1115,331 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="G6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="22">
+      <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="27">
-        <v>6</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="24">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="30" t="s">
+      <c r="H8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>7.1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>7.2</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="22">
+      <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="26" t="s">
+      <c r="H11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="2:10" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="22">
+      <c r="B13" s="19">
         <v>10</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="22">
+      <c r="B14" s="19">
         <v>11</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>12</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="22">
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19">
         <v>14</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="23" t="s">
         <v>52</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1418,111 +1447,111 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B19" s="22">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="19">
         <v>16</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="26" t="s">
+      <c r="H19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="22">
+      <c r="B20" s="19">
         <v>17</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="26" t="s">
+      <c r="H20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B21" s="7">
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="H21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>70</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -1530,28 +1559,28 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>19</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="26" t="s">
+      <c r="H22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -1559,28 +1588,28 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="G23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="13" t="s">
         <v>94</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -1588,28 +1617,28 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27">
+      <c r="B24" s="24">
         <v>21</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="C24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="30" t="s">
+      <c r="H24" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="27" t="s">
         <v>76</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -1617,28 +1646,28 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="27">
+      <c r="B25" s="24">
         <v>22</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="29" t="s">
+      <c r="C25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="28" t="s">
+      <c r="G25" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="27" t="s">
         <v>80</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -1646,28 +1675,28 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="27">
+      <c r="B26" s="24">
         <v>23</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="30" t="s">
+      <c r="H26" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="27" t="s">
         <v>85</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -1675,275 +1704,321 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="36">
+      <c r="B27" s="29">
         <v>24</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="38" t="s">
+      <c r="C27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="39" t="s">
+      <c r="H27" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="32" t="s">
         <v>88</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="35">
+        <v>25</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="G30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="G31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="G32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="G33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="G34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="G35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="G36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="G37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="G38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="G39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="G40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="G41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="G43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="G44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="G45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="G46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="G47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="G48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="G49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="G50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="G51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="G52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="G53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="G54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="G55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="G56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="G57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="G58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="G59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="G60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="G61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="G63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="G65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="G66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="G67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="G68" s="2"/>
@@ -1951,12 +2026,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="J13:J16"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="J9:J12"/>
-    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/List of APIs.xlsx
+++ b/List of APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me6\Documents\Work\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B84175-9C7B-4C09-87B5-0E09D8D9EF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E166F0-1805-4DA8-963A-97583C54F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="129">
   <si>
     <t>POST</t>
   </si>
@@ -306,9 +306,6 @@
     <t>127.0.0.1:8000/api/groups/manager/users/</t>
   </si>
   <si>
-    <t>POST/DELETE</t>
-  </si>
-  <si>
     <t>افزودن کاربر به گروه</t>
   </si>
   <si>
@@ -324,16 +321,97 @@
     <t xml:space="preserve">این یک api ساده بدون استفاده از DRF در جنگو است </t>
   </si>
   <si>
-    <t>02-Shop API</t>
-  </si>
-  <si>
     <t>01-Simple API</t>
   </si>
   <si>
     <t>02-Simple DRF</t>
   </si>
   <si>
-    <t>یک DRF API ساده</t>
+    <t>02-Shop</t>
+  </si>
+  <si>
+    <t>دریافت تمام محصولات با استفاده از route های مختلف</t>
+  </si>
+  <si>
+    <t>یک DRF API ساده با استفاده از route های مختف در حالت های مختلف مثل فانکشن بیس و یا کلاس بیس و یا ...</t>
+  </si>
+  <si>
+    <t>در این بخش با استفاده از viewsets.ViewSet ویوی ما نوشته شده و از دو روش برای مسیر دهی استفاده شده یکی Manual URL Routing و دیگری با استفاده از Routers</t>
+  </si>
+  <si>
+    <t>03-ViewSet</t>
+  </si>
+  <si>
+    <t>استفاده از ViewSet در ویو</t>
+  </si>
+  <si>
+    <t>استفاده از ModelViewSet در ویو</t>
+  </si>
+  <si>
+    <t>با استفاده از ModelViewSet میتوانیم ویو خود را بنویسیم که در این صورت چون مرتبط با مدل است میبایست سریالایزر مناسب هم داشته باشیم از تمامی متد های GET/POST/PUT/PATCH/DELETE پشتیبانی میکند</t>
+  </si>
+  <si>
+    <t>استفاده از ReadOnlyModelViewSet در ویو</t>
+  </si>
+  <si>
+    <t>همانطور که از نامش پیداست فقط برای گرفتن داده ها از دیتابیس استفاده میشود با آدرس api/products/ برای دریافت لیست تمامی محصولات و با آدرس api/products/{pk=number} برای دریافت داده های یک محصول</t>
+  </si>
+  <si>
+    <t>GET(list-retrieve)</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/  ---  127.0.0.1:8000/api/products/{pk}</t>
+  </si>
+  <si>
+    <t>04-(ModelViewSet) (ReadOnlyModelViewSet)</t>
+  </si>
+  <si>
+    <t>05-Generic views</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/&lt;int:pk&gt;/</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/create/</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/&lt;int:pk&gt;/retrieve/</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/&lt;int:pk&gt;/destroy/</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/&lt;int:pk&gt;/update/</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/&lt;int:pk&gt;/retrieve-update/</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/&lt;int:pk&gt;/retrieve-destroy/</t>
+  </si>
+  <si>
+    <t>PUT, PATCH</t>
+  </si>
+  <si>
+    <t>GET, PUT, PATCH</t>
+  </si>
+  <si>
+    <t>GET, DELETE</t>
+  </si>
+  <si>
+    <t>POST, DELETE</t>
+  </si>
+  <si>
+    <t>GET, POST, PUT,  PATCH, DELETE</t>
+  </si>
+  <si>
+    <t>GET, POST</t>
+  </si>
+  <si>
+    <t>GET, PUT, PATCH, DELETE</t>
+  </si>
+  <si>
+    <t>استفاده از generics view با تمامی متد ها</t>
   </si>
 </sst>
 </file>
@@ -362,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,22 +699,85 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,36 +1115,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="75.7265625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1054,7 +1201,7 @@
       <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1083,7 +1230,7 @@
       <c r="I4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
@@ -1139,7 +1286,7 @@
       <c r="I6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1168,7 +1315,7 @@
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="24">
@@ -1195,7 +1342,7 @@
       <c r="I8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
@@ -1222,7 +1369,7 @@
       <c r="I9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="38" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1251,7 +1398,7 @@
       <c r="I10" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19">
@@ -1278,7 +1425,7 @@
       <c r="I11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="2:10" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="9">
@@ -1305,7 +1452,7 @@
       <c r="I12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19">
@@ -1332,7 +1479,7 @@
       <c r="I13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1361,7 +1508,7 @@
       <c r="I14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19">
@@ -1388,7 +1535,7 @@
       <c r="I15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9">
@@ -1415,7 +1562,7 @@
       <c r="I16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="19">
@@ -1471,7 +1618,7 @@
       <c r="I18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="38" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1500,7 +1647,7 @@
       <c r="I19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="19">
@@ -1527,7 +1674,7 @@
       <c r="I20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
@@ -1601,7 +1748,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>4</v>
@@ -1610,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="I23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1733,172 +1880,415 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="35">
+      <c r="B28" s="33">
         <v>25</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="39">
+        <v>26</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="42" t="s">
         <v>101</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="33">
+        <v>27</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="39">
+        <v>28</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="43">
+        <v>29</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="50">
+        <v>30</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="53">
+        <v>31</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="59"/>
+    </row>
+    <row r="35" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="53">
+        <v>32</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="59"/>
+    </row>
+    <row r="36" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="53">
+        <v>33</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="59"/>
+    </row>
+    <row r="37" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="53">
+        <v>34</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="59"/>
+    </row>
+    <row r="38" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="53">
+        <v>35</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="59"/>
+    </row>
+    <row r="39" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="53">
+        <v>36</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="59"/>
+    </row>
+    <row r="40" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="56">
+        <v>37</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="59"/>
+    </row>
+    <row r="41" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="56"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="58"/>
+    </row>
+    <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="G42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="G43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="G44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="G45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="G46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="G47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="G48" s="2"/>
@@ -2025,7 +2415,8 @@
       <c r="I68" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J33:J40"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J6:J8"/>

--- a/List of APIs.xlsx
+++ b/List of APIs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me6\Documents\Work\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E166F0-1805-4DA8-963A-97583C54F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB72083E-468B-4295-915E-9FBBA95872D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="2130" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="130">
   <si>
     <t>POST</t>
   </si>
@@ -411,7 +411,10 @@
     <t>GET, PUT, PATCH, DELETE</t>
   </si>
   <si>
-    <t>استفاده از generics view با تمامی متد ها</t>
+    <t>با استفاده از احراز هویت انتخابی</t>
+  </si>
+  <si>
+    <t>استفاده از generics view با تمامی متد ها ----- مورد آخر احراز هویت انتخابی دارد یعنی شما میتوانید برای فرضا متد post یا get احراز هویت بذارید و برای بقیه نذارید ----- BasicAuthentication در این حالت در هدر ریکویست یوزر و پسورد میبایست ارسال شود ----- SessionAuthentication در این حالت اطلاعات احراز هویت در سشن ذخیره میشود و نیازی به ارسال هر دفعه نیست ولی برای APIهای عمومی یا برای استفاده در موبایل مناسب نیست؛ زیرا وابسته به سشن و کوکی‌هاست.</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,73 +714,85 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1115,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I41" sqref="B41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,16 +1150,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1201,7 +1216,7 @@
       <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1230,7 +1245,7 @@
       <c r="I4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="2:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
@@ -1286,11 +1301,11 @@
       <c r="I6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="63" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="19">
         <v>5</v>
       </c>
@@ -1315,7 +1330,7 @@
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="24">
@@ -1342,7 +1357,7 @@
       <c r="I8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
@@ -1369,7 +1384,7 @@
       <c r="I9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="63" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1398,7 +1413,7 @@
       <c r="I10" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19">
@@ -1425,7 +1440,7 @@
       <c r="I11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="2:10" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="9">
@@ -1452,7 +1467,7 @@
       <c r="I12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="38"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19">
@@ -1479,7 +1494,7 @@
       <c r="I13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="63" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1508,7 +1523,7 @@
       <c r="I14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="38"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19">
@@ -1535,7 +1550,7 @@
       <c r="I15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="2:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9">
@@ -1562,7 +1577,7 @@
       <c r="I16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="38"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="19">
@@ -1618,7 +1633,7 @@
       <c r="I18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="63" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1647,7 +1662,7 @@
       <c r="I19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="38"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="19">
@@ -1674,7 +1689,7 @@
       <c r="I20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="38"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
@@ -1909,28 +1924,28 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="39">
+      <c r="B29" s="37">
         <v>26</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="42" t="s">
+      <c r="G29" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="40" t="s">
         <v>101</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -1950,7 +1965,7 @@
       <c r="E30" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="35" t="s">
         <v>125</v>
       </c>
       <c r="G30" s="35" t="s">
@@ -1967,28 +1982,28 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="39">
+      <c r="B31" s="37">
         <v>28</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="42" t="s">
+      <c r="G31" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="40" t="s">
         <v>106</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -1996,28 +2011,28 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="43">
+      <c r="B32" s="47">
         <v>29</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="46" t="s">
+      <c r="G32" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="49" t="s">
         <v>108</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -2025,232 +2040,232 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="50">
+      <c r="B33" s="41">
         <v>30</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G33" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>128</v>
+      <c r="G33" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="53">
         <v>31</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="59"/>
+      <c r="G34" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="61"/>
     </row>
     <row r="35" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="53">
         <v>32</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="59"/>
+      <c r="G35" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="61"/>
     </row>
     <row r="36" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="53">
         <v>33</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="59"/>
+      <c r="G36" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="61"/>
     </row>
     <row r="37" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="53">
         <v>34</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="59"/>
+      <c r="G37" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="61"/>
     </row>
     <row r="38" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="53">
         <v>35</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="59"/>
+      <c r="G38" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="61"/>
     </row>
     <row r="39" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="53">
         <v>36</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="59"/>
+      <c r="G39" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="61"/>
     </row>
     <row r="40" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="56">
+      <c r="B40" s="57">
         <v>37</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="59"/>
+      <c r="G40" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="J40" s="61"/>
     </row>
     <row r="41" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="56"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="58"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>

--- a/List of APIs.xlsx
+++ b/List of APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me6\Documents\Work\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB72083E-468B-4295-915E-9FBBA95872D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B63E59-8649-4F42-A2D0-5578693BA0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4800" yWindow="2130" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="142">
   <si>
     <t>POST</t>
   </si>
@@ -415,6 +415,42 @@
   </si>
   <si>
     <t>استفاده از generics view با تمامی متد ها ----- مورد آخر احراز هویت انتخابی دارد یعنی شما میتوانید برای فرضا متد post یا get احراز هویت بذارید و برای بقیه نذارید ----- BasicAuthentication در این حالت در هدر ریکویست یوزر و پسورد میبایست ارسال شود ----- SessionAuthentication در این حالت اطلاعات احراز هویت در سشن ذخیره میشود و نیازی به ارسال هر دفعه نیست ولی برای APIهای عمومی یا برای استفاده در موبایل مناسب نیست؛ زیرا وابسته به سشن و کوکی‌هاست.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GET</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>دریافت محصولات با سریالایزر</t>
+  </si>
+  <si>
+    <t>دریافت محصول با سریالایزر</t>
+  </si>
+  <si>
+    <t>یک نوع سریالایزر عادی داریم و یک نوع بر اساس مدل----در این کد ما از نوع مدل بیس استفاده کردیم</t>
+  </si>
+  <si>
+    <t>دریافت محصولات با سریالایزر مرتبط</t>
+  </si>
+  <si>
+    <t>اینجا دو تا مدل مرتبط (محصول و کتگوری) داریم و سریالایزر مربوط به اینها را استفاده میکنیم که برای بهینه سازی تعداد کوعری ها از select_related استفاده شده است در صورت عدم استفاده از select_related میبایست برای هر محصول یک کوعری جداگانه ارسال شود</t>
+  </si>
+  <si>
+    <t>همان روش قبلی فقط بجای category = CategroSerializer() در سریالایزر از depth=1 استفاده شده است و همان عملکرد را دارد</t>
+  </si>
+  <si>
+    <t>دریافت محصولات با سریالایزر مرتبط با لینک کتگوری</t>
+  </si>
+  <si>
+    <t>در این حالت میتوان به کتگوری هر محصول به صورت یک لینک دسترسی داشت و با کلیک بر روی لینگ کتگوری جزییات کامل آن نمایش داده میشود</t>
+  </si>
+  <si>
+    <t>06-Serialization</t>
+  </si>
+  <si>
+    <t>07-Deserializer</t>
   </si>
 </sst>
 </file>
@@ -604,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,6 +810,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,15 +841,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1130,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I41" sqref="B41:I41"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2231,71 +2279,195 @@
       <c r="J39" s="61"/>
     </row>
     <row r="40" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="57">
+      <c r="B40" s="53">
         <v>37</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="60" t="s">
+      <c r="G40" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="56" t="s">
         <v>128</v>
       </c>
       <c r="J40" s="61"/>
     </row>
-    <row r="41" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="50"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="52"/>
-    </row>
-    <row r="42" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="I46" s="2"/>
+    <row r="41" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="47">
+        <v>38</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="59">
+        <v>39</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="61"/>
+    </row>
+    <row r="43" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="47">
+        <v>40</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="59">
+        <v>41</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="50">
+        <v>42</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="64">
+        <v>43</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D47" s="2"/>
@@ -2430,7 +2602,8 @@
       <c r="I68" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J41:J42"/>
     <mergeCell ref="J33:J40"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J3:J4"/>

--- a/List of APIs.xlsx
+++ b/List of APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me6\Documents\Work\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B63E59-8649-4F42-A2D0-5578693BA0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE6333-1901-4B0D-857D-A20C2E0024CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="153">
   <si>
     <t>POST</t>
   </si>
@@ -451,6 +451,39 @@
   </si>
   <si>
     <t>07-Deserializer</t>
+  </si>
+  <si>
+    <t>دی سریالایز به کمک متد post انجام میشه و برای هندل کردن سریالایزر مرتبط محصول و کتگوری از read_only و write_only استفاده شده است.</t>
+  </si>
+  <si>
+    <t>دی سریالایز به کمک post</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/?category=shows&amp;to_price=25</t>
+  </si>
+  <si>
+    <t>فیلتر کردن بر اساس کتگوری و حد پایین قیمت</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/?search=t-shirt</t>
+  </si>
+  <si>
+    <t>جستجوکردن بر اساس نام محصول</t>
+  </si>
+  <si>
+    <t>در این بخش با تغییراتی که در تابع دریافت محصولات در ویو انجام شد ابتدا از request مقادیر فیلتر یا سرچ دریافت میشه و سپس کوعری متناسب با مقادیر دریافت شده بازنویسی میشه.</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/api/products/?ordering=price,inventory,…</t>
+  </si>
+  <si>
+    <t>به ترتیب کردن محصولات</t>
+  </si>
+  <si>
+    <t>میتوان لیست محصولات را بر اساس چند متغییر به ترتیب کرد. بین متغیرها در آدرس می بایست از کاما استفاده کنیم اینجا inventory گذاشتم ولی در مدل همچنین متغییری نیست. برای ترتیب برعکس کافیه پشت هر متغیر یک منفی بذاریم.</t>
+  </si>
+  <si>
+    <t>08-Filtering&amp;Searching&amp; ordering</t>
   </si>
 </sst>
 </file>
@@ -640,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,16 +864,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1178,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,8 +1223,8 @@
     <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -2449,7 +2485,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="64">
+      <c r="B46" s="53">
         <v>43</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -2461,117 +2497,192 @@
       <c r="E46" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="67"/>
+      <c r="F46" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="56" t="s">
+        <v>143</v>
+      </c>
       <c r="J46" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="47">
+        <v>44</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="J47" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="59">
+        <v>45</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" s="64"/>
+    </row>
+    <row r="49" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="50">
+        <v>46</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="G50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="G51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="G52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="G53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="G54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="G55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="G56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="G57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="G58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="G59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="G60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="G61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="G63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="4:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
@@ -2602,7 +2713,8 @@
       <c r="I68" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="J33:J40"/>
     <mergeCell ref="B1:I1"/>

--- a/List of APIs.xlsx
+++ b/List of APIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me6\Documents\Work\APIs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE6333-1901-4B0D-857D-A20C2E0024CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD7587-EC93-4065-9728-B9324FC96961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="167">
   <si>
     <t>POST</t>
   </si>
@@ -484,6 +484,48 @@
   </si>
   <si>
     <t>08-Filtering&amp;Searching&amp; ordering</t>
+  </si>
+  <si>
+    <t>09-Validation</t>
+  </si>
+  <si>
+    <t>روش اول برای اعتبار سنجی</t>
+  </si>
+  <si>
+    <t>روش دوم برای اعتبار سنجی</t>
+  </si>
+  <si>
+    <t>روش سوم برای اعتبار سنجی</t>
+  </si>
+  <si>
+    <t>استفاده از extra_kwargs</t>
+  </si>
+  <si>
+    <t>اعمال شرایط اعتبار سنجی در فیلد ها</t>
+  </si>
+  <si>
+    <t>استفاده از validate_field()</t>
+  </si>
+  <si>
+    <t>روش چهارم برای اعتبار سنجی</t>
+  </si>
+  <si>
+    <t>استفاده از validate(self, data)</t>
+  </si>
+  <si>
+    <t>اعتبار سنجی برای منحصربفرد بودن</t>
+  </si>
+  <si>
+    <t>با ۲ متد میشه از تکراری بودن یک فیلد جلوگیری کرد</t>
+  </si>
+  <si>
+    <t>برای جلوگیری کردن از تکراری بودن چند فیلد از این روش استفاده میشود فرضا اگر هم نام و هم قیمت تکراری باشد خطا میدهد</t>
+  </si>
+  <si>
+    <t>اعتبار سنجی برای منحصربفرد بودن چند فیلد</t>
+  </si>
+  <si>
+    <t>10-Data sanitization</t>
   </si>
 </sst>
 </file>
@@ -673,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,29 +897,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1234,16 +1261,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1300,7 +1327,7 @@
       <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="61" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1329,7 +1356,7 @@
       <c r="I4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="63"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="2:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
@@ -1385,7 +1412,7 @@
       <c r="I6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="61" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1414,7 +1441,7 @@
       <c r="I7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="63"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="24">
@@ -1441,7 +1468,7 @@
       <c r="I8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="63"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
@@ -1468,7 +1495,7 @@
       <c r="I9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="61" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1497,7 +1524,7 @@
       <c r="I10" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="2:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19">
@@ -1524,7 +1551,7 @@
       <c r="I11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="63"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="2:10" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="9">
@@ -1551,7 +1578,7 @@
       <c r="I12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="63"/>
+      <c r="J12" s="61"/>
     </row>
     <row r="13" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19">
@@ -1578,7 +1605,7 @@
       <c r="I13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="61" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1607,7 +1634,7 @@
       <c r="I14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="63"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="2:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19">
@@ -1634,7 +1661,7 @@
       <c r="I15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="63"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="2:10" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9">
@@ -1661,7 +1688,7 @@
       <c r="I16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="19">
@@ -1717,7 +1744,7 @@
       <c r="I18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="61" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1746,7 +1773,7 @@
       <c r="I19" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="63"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="2:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="19">
@@ -1773,7 +1800,7 @@
       <c r="I20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="63"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
@@ -2148,7 +2175,7 @@
       <c r="I33" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="61" t="s">
+      <c r="J33" s="62" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2177,7 +2204,7 @@
       <c r="I34" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="61"/>
+      <c r="J34" s="62"/>
     </row>
     <row r="35" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="53">
@@ -2204,7 +2231,7 @@
       <c r="I35" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="61"/>
+      <c r="J35" s="62"/>
     </row>
     <row r="36" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="53">
@@ -2231,7 +2258,7 @@
       <c r="I36" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J36" s="61"/>
+      <c r="J36" s="62"/>
     </row>
     <row r="37" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="53">
@@ -2258,7 +2285,7 @@
       <c r="I37" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J37" s="61"/>
+      <c r="J37" s="62"/>
     </row>
     <row r="38" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="53">
@@ -2285,7 +2312,7 @@
       <c r="I38" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="61"/>
+      <c r="J38" s="62"/>
     </row>
     <row r="39" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="53">
@@ -2312,7 +2339,7 @@
       <c r="I39" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J39" s="61"/>
+      <c r="J39" s="62"/>
     </row>
     <row r="40" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="53">
@@ -2339,7 +2366,7 @@
       <c r="I40" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="61"/>
+      <c r="J40" s="62"/>
     </row>
     <row r="41" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="47">
@@ -2366,7 +2393,7 @@
       <c r="I41" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="J41" s="61" t="s">
+      <c r="J41" s="62" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2395,7 +2422,7 @@
       <c r="I42" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="61"/>
+      <c r="J42" s="62"/>
     </row>
     <row r="43" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="47">
@@ -2488,22 +2515,22 @@
       <c r="B46" s="53">
         <v>43</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C46" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="D46" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="65" t="s">
+      <c r="G46" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="54" t="s">
         <v>4</v>
       </c>
       <c r="I46" s="56" t="s">
@@ -2538,7 +2565,7 @@
       <c r="I47" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="J47" s="64" t="s">
+      <c r="J47" s="61" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2546,28 +2573,28 @@
       <c r="B48" s="59">
         <v>45</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="68" t="s">
+      <c r="E48" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="67" t="s">
+      <c r="F48" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="67" t="s">
+      <c r="G48" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="57" t="s">
         <v>4</v>
       </c>
       <c r="I48" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="J48" s="64"/>
+      <c r="J48" s="61"/>
     </row>
     <row r="49" spans="2:10" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="50">
@@ -2598,47 +2625,199 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="I56" s="2"/>
+    <row r="50" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="53">
+        <v>47</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="53">
+        <v>48</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="53">
+        <v>49</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="53">
+        <v>50</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="53">
+        <v>51</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="53">
+        <v>52</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="53">
+        <v>53</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="55"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="56"/>
     </row>
     <row r="57" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D57" s="2"/>
